--- a/data/trans_orig/P39B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Edad-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6483</v>
+        <v>6881</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003543946103082255</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.018322500046022</v>
+        <v>0.01944483778975243</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6209</v>
+        <v>6216</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001679135728788909</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008313275410986759</v>
+        <v>0.008322582782763203</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14426</v>
+        <v>15256</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007373209481751633</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03670873138760774</v>
+        <v>0.03882238680099233</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16603</v>
+        <v>14930</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01123300590388197</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04691939639622942</v>
+        <v>0.042193011490545</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -846,19 +846,19 @@
         <v>6872</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1200</v>
+        <v>1187</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19990</v>
+        <v>20644</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009201996345246499</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001607422181750725</v>
+        <v>0.001588915051616845</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02676569742751928</v>
+        <v>0.02764144590401613</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>362615</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>343914</v>
+        <v>344427</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>376713</v>
+        <v>376936</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9227291086365746</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8751403835728451</v>
+        <v>0.8764466192581877</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9586024758503938</v>
+        <v>0.95917008193447</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>196</v>
@@ -896,19 +896,19 @@
         <v>340363</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>326604</v>
+        <v>328478</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>348031</v>
+        <v>348679</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9618767763291535</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9229939590084377</v>
+        <v>0.9282893444109188</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9835472734750295</v>
+        <v>0.9853790554982595</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>349</v>
@@ -917,19 +917,19 @@
         <v>702978</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>680590</v>
+        <v>681494</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>718978</v>
+        <v>720315</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9412774289578668</v>
+        <v>0.9412774289578666</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9113003619349761</v>
+        <v>0.9125105991286514</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9627005927550744</v>
+        <v>0.9644911849368709</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>13316</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4756</v>
+        <v>4925</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27613</v>
+        <v>27449</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0338852408449935</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01210346537213015</v>
+        <v>0.01253223845234906</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07026455991815009</v>
+        <v>0.06984906697746304</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15367</v>
+        <v>16007</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01242679482536546</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04342821322670697</v>
+        <v>0.04523533548337337</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -988,19 +988,19 @@
         <v>17714</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7902</v>
+        <v>8669</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34054</v>
+        <v>34265</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02371814395700528</v>
+        <v>0.02371814395700527</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01058043629667742</v>
+        <v>0.01160796738763517</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04559800981484071</v>
+        <v>0.0458809139346766</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>14152</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6406</v>
+        <v>5808</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30026</v>
+        <v>28705</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03601244103668023</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01629998300402173</v>
+        <v>0.01477881651485231</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07640523856855198</v>
+        <v>0.07304426593975331</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13336</v>
+        <v>15828</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01091947683851691</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03768826564065381</v>
+        <v>0.04473168921732086</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -1059,19 +1059,19 @@
         <v>18016</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8291</v>
+        <v>8776</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33027</v>
+        <v>33401</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02412329501109265</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01110121966967423</v>
+        <v>0.01175075069761409</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04422334700611001</v>
+        <v>0.04472295023672149</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>5594</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11539</v>
+        <v>11359</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01135649570674458</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003879745838941448</v>
+        <v>0.003884880737970947</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02342744325247329</v>
+        <v>0.02306225394610049</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1197,19 +1197,19 @@
         <v>5594</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1936</v>
+        <v>1940</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11286</v>
+        <v>11130</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005784247698667005</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002001479632675869</v>
+        <v>0.002005887019841889</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01167070946420096</v>
+        <v>0.01150908237344359</v>
       </c>
     </row>
     <row r="11">
@@ -1226,19 +1226,19 @@
         <v>5611</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>939</v>
+        <v>914</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17639</v>
+        <v>17756</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01182494693535491</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001979392037738531</v>
+        <v>0.001925237153361773</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03717324381738395</v>
+        <v>0.03742128257077258</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1247,19 +1247,19 @@
         <v>6943</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2836</v>
+        <v>2195</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14764</v>
+        <v>13713</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0140955541106657</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00575704445672882</v>
+        <v>0.004456180576485069</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02997442685555541</v>
+        <v>0.02784095351466901</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1268,19 +1268,19 @@
         <v>12554</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5655</v>
+        <v>5666</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24081</v>
+        <v>25640</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01298144403336095</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005848157171194221</v>
+        <v>0.005859332103980523</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02490122405195179</v>
+        <v>0.02651341185051136</v>
       </c>
     </row>
     <row r="12">
@@ -1297,19 +1297,19 @@
         <v>448867</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>434353</v>
+        <v>435384</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>458778</v>
+        <v>459024</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9459835598756325</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9153944749212494</v>
+        <v>0.917568058045425</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9668704507393289</v>
+        <v>0.9673887346719996</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>424</v>
@@ -1318,19 +1318,19 @@
         <v>460606</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>445989</v>
+        <v>447321</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>470911</v>
+        <v>470399</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9351451818875287</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9054700638513101</v>
+        <v>0.9081734606604276</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9560672376579694</v>
+        <v>0.9550288342019487</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>707</v>
@@ -1339,19 +1339,19 @@
         <v>909473</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>890663</v>
+        <v>889187</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>925612</v>
+        <v>926220</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9404632070701681</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9210126171598745</v>
+        <v>0.91948545725135</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9571525002973967</v>
+        <v>0.9577805751573721</v>
       </c>
     </row>
     <row r="13">
@@ -1368,19 +1368,19 @@
         <v>17521</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9766</v>
+        <v>9917</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30005</v>
+        <v>30840</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03692432410345788</v>
+        <v>0.03692432410345786</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0205807324792517</v>
+        <v>0.02089940756265148</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06323461572699385</v>
+        <v>0.06499553909691734</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1389,19 +1389,19 @@
         <v>14814</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7733</v>
+        <v>8025</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26343</v>
+        <v>25121</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03007625252454649</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01570061577329724</v>
+        <v>0.0162937535714148</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05348200821933643</v>
+        <v>0.05100264043350053</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -1410,19 +1410,19 @@
         <v>32335</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20528</v>
+        <v>21155</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46242</v>
+        <v>48463</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03343636943033627</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02122756787111092</v>
+        <v>0.02187536957292482</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0478178573225639</v>
+        <v>0.05011417179714144</v>
       </c>
     </row>
     <row r="14">
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7719</v>
+        <v>7874</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005267169085554794</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01626811651109345</v>
+        <v>0.01659366072326678</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1460,19 +1460,19 @@
         <v>4594</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1266</v>
+        <v>1028</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11932</v>
+        <v>10518</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.00932651577051445</v>
+        <v>0.009326515770514451</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002570098255522099</v>
+        <v>0.002086246441856481</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02422414752718101</v>
+        <v>0.02135347158497207</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -1481,19 +1481,19 @@
         <v>7093</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2527</v>
+        <v>2485</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14437</v>
+        <v>14925</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.007334731767467717</v>
+        <v>0.007334731767467716</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002613593985094823</v>
+        <v>0.002569514217530764</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01492881242402179</v>
+        <v>0.01543311432384357</v>
       </c>
     </row>
     <row r="15">
@@ -1585,19 +1585,19 @@
         <v>5826</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2079</v>
+        <v>2095</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13393</v>
+        <v>13674</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.009520563311523126</v>
+        <v>0.009520563311523128</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003397821335993425</v>
+        <v>0.003424020926331698</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02188790973091917</v>
+        <v>0.02234669366665938</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1606,19 +1606,19 @@
         <v>7426</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3695</v>
+        <v>3636</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13601</v>
+        <v>14378</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01213731837422671</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006039059074990496</v>
+        <v>0.005942108356250474</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02222932431966761</v>
+        <v>0.02349998446906749</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1627,19 +1627,19 @@
         <v>13252</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7243</v>
+        <v>7523</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22039</v>
+        <v>22016</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01082887480725791</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005918536513213637</v>
+        <v>0.006147413297824656</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01800944871169302</v>
+        <v>0.01799071591618301</v>
       </c>
     </row>
     <row r="17">
@@ -1656,19 +1656,19 @@
         <v>7650</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3168</v>
+        <v>3028</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17154</v>
+        <v>15569</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01250151398267136</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005176753221153561</v>
+        <v>0.004948087443460727</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02803469323261114</v>
+        <v>0.02544423902800897</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1677,19 +1677,19 @@
         <v>2755</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6834</v>
+        <v>6766</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.004502767431685695</v>
+        <v>0.004502767431685696</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001220058420782666</v>
+        <v>0.001225876664500743</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01116961420670982</v>
+        <v>0.01105849705696205</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -1698,19 +1698,19 @@
         <v>10404</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5186</v>
+        <v>5635</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18869</v>
+        <v>20449</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.008502342561059049</v>
+        <v>0.008502342561059051</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004237987061912568</v>
+        <v>0.004604879333967114</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01541956813823363</v>
+        <v>0.01671047577476074</v>
       </c>
     </row>
     <row r="18">
@@ -1727,19 +1727,19 @@
         <v>579416</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>565031</v>
+        <v>565690</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>589153</v>
+        <v>589453</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9469264296449271</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9234170209658139</v>
+        <v>0.9244941680462518</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9628390545245878</v>
+        <v>0.9633302350140568</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>795</v>
@@ -1748,19 +1748,19 @@
         <v>582831</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>572123</v>
+        <v>573249</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>590440</v>
+        <v>591193</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9526040087775157</v>
+        <v>0.9526040087775158</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9351023635983629</v>
+        <v>0.9369426530361605</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9650405152213551</v>
+        <v>0.9662723248743441</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1304</v>
@@ -1769,19 +1769,19 @@
         <v>1162247</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1148479</v>
+        <v>1145495</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1176924</v>
+        <v>1175459</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9497650759336002</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9385146587975701</v>
+        <v>0.9360763763132216</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9617588308887923</v>
+        <v>0.9605616641755647</v>
       </c>
     </row>
     <row r="19">
@@ -1798,19 +1798,19 @@
         <v>13807</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7856</v>
+        <v>7743</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24001</v>
+        <v>22816</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02256431491335437</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01283914911345136</v>
+        <v>0.01265358705727702</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03922424965684743</v>
+        <v>0.03728765365768891</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -1819,19 +1819,19 @@
         <v>15250</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9469</v>
+        <v>9859</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23406</v>
+        <v>23127</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.02492588755748954</v>
+        <v>0.02492588755748955</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01547645857621422</v>
+        <v>0.01611316342711658</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03825541577811849</v>
+        <v>0.03779953799009558</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>33</v>
@@ -1840,19 +1840,19 @@
         <v>29057</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20174</v>
+        <v>20282</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40252</v>
+        <v>40544</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0237450416395091</v>
+        <v>0.02374504163950911</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01648542055021395</v>
+        <v>0.01657399950534365</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03289322250994004</v>
+        <v>0.0331316761477808</v>
       </c>
     </row>
     <row r="20">
@@ -1869,19 +1869,19 @@
         <v>5193</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11490</v>
+        <v>11689</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.008487178147524045</v>
+        <v>0.008487178147524047</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003281528641677094</v>
+        <v>0.003277315261474378</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01877860584372524</v>
+        <v>0.01910257064054998</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1890,19 +1890,19 @@
         <v>3567</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1181</v>
+        <v>970</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7983</v>
+        <v>7577</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.005830017859082258</v>
+        <v>0.00583001785908226</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001929790633565408</v>
+        <v>0.001586132403517838</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01304851196360622</v>
+        <v>0.01238462426707566</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -1911,19 +1911,19 @@
         <v>8760</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4372</v>
+        <v>4429</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16446</v>
+        <v>15481</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.00715866505857387</v>
+        <v>0.007158665058573872</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003572668760142144</v>
+        <v>0.003619201619086016</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01343924867466857</v>
+        <v>0.01265062832957634</v>
       </c>
     </row>
     <row r="21">
@@ -2015,19 +2015,19 @@
         <v>4299</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1428</v>
+        <v>1062</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11027</v>
+        <v>11228</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006214889549083171</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002064044813194037</v>
+        <v>0.001535723862772429</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.015942046014918</v>
+        <v>0.01623202750982659</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2036,19 +2036,19 @@
         <v>6082</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3286</v>
+        <v>2748</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11393</v>
+        <v>10858</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.008356455965878366</v>
+        <v>0.008356455965878367</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004515030843651418</v>
+        <v>0.003775537739887834</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01565323046246705</v>
+        <v>0.01491848701028564</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -2057,19 +2057,19 @@
         <v>10381</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5633</v>
+        <v>5708</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17278</v>
+        <v>17822</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.007312907010174235</v>
+        <v>0.007312907010174237</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003968265991246583</v>
+        <v>0.004020861192718179</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01217177919363245</v>
+        <v>0.01255505956688982</v>
       </c>
     </row>
     <row r="23">
@@ -2086,19 +2086,19 @@
         <v>4942</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10601</v>
+        <v>12848</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.007144499994433175</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.002412660630285918</v>
+        <v>0.002409879419412072</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01532497975383708</v>
+        <v>0.0185736076649945</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -2107,19 +2107,19 @@
         <v>6751</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11635</v>
+        <v>11976</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.009275813339689827</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004749659925423713</v>
+        <v>0.004748723801921813</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01598640422304741</v>
+        <v>0.01645410216619212</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>15</v>
@@ -2128,19 +2128,19 @@
         <v>11693</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6725</v>
+        <v>6571</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>18572</v>
+        <v>19161</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008237260531671287</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004737739651060838</v>
+        <v>0.004628962234731419</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01308329608282901</v>
+        <v>0.01349767498958745</v>
       </c>
     </row>
     <row r="24">
@@ -2157,19 +2157,19 @@
         <v>655855</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>642722</v>
+        <v>642842</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>666376</v>
+        <v>666437</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9481529080458703</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9291669554217463</v>
+        <v>0.9293397583882503</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9633618919676387</v>
+        <v>0.963450712986418</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1083</v>
@@ -2178,19 +2178,19 @@
         <v>698410</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>688874</v>
+        <v>688809</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>705989</v>
+        <v>705898</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9595872974998501</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9464850945655621</v>
+        <v>0.9463959544334712</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9700012595535503</v>
+        <v>0.9698765573992481</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1705</v>
@@ -2199,19 +2199,19 @@
         <v>1354265</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1337206</v>
+        <v>1338714</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1367595</v>
+        <v>1369550</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9540155136503109</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9419982517700841</v>
+        <v>0.9430605305626385</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9634055130603688</v>
+        <v>0.9647832982438436</v>
       </c>
     </row>
     <row r="25">
@@ -2228,19 +2228,19 @@
         <v>14158</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7436</v>
+        <v>8086</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23620</v>
+        <v>23956</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02046824766517469</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01075023484691331</v>
+        <v>0.01168924903277065</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0341462146366796</v>
+        <v>0.03463225863446839</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -2249,19 +2249,19 @@
         <v>11699</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7536</v>
+        <v>7119</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19156</v>
+        <v>17869</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01607338353662604</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01035480650248867</v>
+        <v>0.009781105527403942</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02631956149056744</v>
+        <v>0.02455122194541347</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>31</v>
@@ -2270,19 +2270,19 @@
         <v>25857</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17556</v>
+        <v>17700</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>36328</v>
+        <v>37757</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01821492621110994</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01236767357740889</v>
+        <v>0.01246856291811026</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02559126269423717</v>
+        <v>0.02659823688809589</v>
       </c>
     </row>
     <row r="26">
@@ -2299,19 +2299,19 @@
         <v>12464</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6989</v>
+        <v>6885</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21077</v>
+        <v>20054</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01801945474543851</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01010397440229807</v>
+        <v>0.009952987453534148</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03047109474999951</v>
+        <v>0.02899177709606814</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -2320,19 +2320,19 @@
         <v>4882</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2197</v>
+        <v>2007</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9825</v>
+        <v>9808</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006707049657955693</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003017927761566682</v>
+        <v>0.00275720917379532</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01349978219236888</v>
+        <v>0.01347610207035048</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>20</v>
@@ -2341,19 +2341,19 @@
         <v>17346</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10590</v>
+        <v>10846</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26272</v>
+        <v>27614</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01221939259673355</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007459845090684631</v>
+        <v>0.007640241347532137</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0185070893760449</v>
+        <v>0.01945244994806504</v>
       </c>
     </row>
     <row r="27">
@@ -2445,19 +2445,19 @@
         <v>7163</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3079</v>
+        <v>2991</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14278</v>
+        <v>13775</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.01209592147207192</v>
+        <v>0.01209592147207191</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005198539622936788</v>
+        <v>0.005051486262858426</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02411048845462692</v>
+        <v>0.02326061821405039</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -2466,19 +2466,19 @@
         <v>5595</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2654</v>
+        <v>2614</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10182</v>
+        <v>10537</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.009345721422391927</v>
+        <v>0.009345721422391925</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004433551772311248</v>
+        <v>0.004366797398110854</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01700656116786261</v>
+        <v>0.01760095982224331</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>16</v>
@@ -2487,19 +2487,19 @@
         <v>12758</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>7323</v>
+        <v>7376</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>20759</v>
+        <v>20970</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01071332869861957</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006149155556781236</v>
+        <v>0.006193913365439506</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01743151952461174</v>
+        <v>0.01760857052409096</v>
       </c>
     </row>
     <row r="29">
@@ -2516,19 +2516,19 @@
         <v>3314</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10160</v>
+        <v>8970</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.005595995210317005</v>
+        <v>0.005595995210317004</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001676902568939575</v>
+        <v>0.001669224932954763</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01715661844324402</v>
+        <v>0.01514704309633477</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -2537,19 +2537,19 @@
         <v>4782</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2318</v>
+        <v>2338</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9279</v>
+        <v>9154</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.007987981496033825</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003872253260152215</v>
+        <v>0.003905401145959449</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01549868920303752</v>
+        <v>0.01528967873765149</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>12</v>
@@ -2558,19 +2558,19 @@
         <v>8096</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4397</v>
+        <v>4114</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13991</v>
+        <v>15027</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.006798505170715704</v>
+        <v>0.006798505170715705</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003691957868119879</v>
+        <v>0.003454329106590872</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01174853246952825</v>
+        <v>0.01261840053484697</v>
       </c>
     </row>
     <row r="30">
@@ -2587,19 +2587,19 @@
         <v>543558</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>529910</v>
+        <v>529755</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>554869</v>
+        <v>554735</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9178638069904785</v>
+        <v>0.9178638069904784</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8948166928771154</v>
+        <v>0.8945555889391184</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9369636292515807</v>
+        <v>0.9367382998536684</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>929</v>
@@ -2608,19 +2608,19 @@
         <v>564708</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>555201</v>
+        <v>554727</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>573033</v>
+        <v>571809</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.9432418993522186</v>
+        <v>0.9432418993522184</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9273634070742598</v>
+        <v>0.9265707634032846</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9571481626372059</v>
+        <v>0.9551027867652412</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1522</v>
@@ -2629,19 +2629,19 @@
         <v>1108265</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1091106</v>
+        <v>1091844</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1122365</v>
+        <v>1122677</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9306219942021435</v>
+        <v>0.9306219942021438</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9162138273681011</v>
+        <v>0.9168335003594865</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9424618101315089</v>
+        <v>0.9427240103781466</v>
       </c>
     </row>
     <row r="31">
@@ -2658,19 +2658,19 @@
         <v>27965</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19029</v>
+        <v>18917</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>39323</v>
+        <v>38678</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.04722203842423817</v>
+        <v>0.04722203842423816</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03213320729341169</v>
+        <v>0.03194287520796835</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06640190439193887</v>
+        <v>0.06531221709546536</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>28</v>
@@ -2679,19 +2679,19 @@
         <v>16740</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>11101</v>
+        <v>11385</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>24101</v>
+        <v>24130</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.02796092660453621</v>
+        <v>0.0279609266045362</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01854279252104209</v>
+        <v>0.01901716511677706</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0402571353155171</v>
+        <v>0.04030525962894698</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>58</v>
@@ -2700,19 +2700,19 @@
         <v>44705</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>34048</v>
+        <v>33651</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>57056</v>
+        <v>57738</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03753900681580077</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02859044821866814</v>
+        <v>0.02825752710616229</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04791095860894831</v>
+        <v>0.04848309616099692</v>
       </c>
     </row>
     <row r="32">
@@ -2729,19 +2729,19 @@
         <v>10199</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5523</v>
+        <v>5511</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>17895</v>
+        <v>17491</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01722223790289455</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.009325865593769519</v>
+        <v>0.009306541129346903</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03021792174470911</v>
+        <v>0.02953542658606281</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -2750,19 +2750,19 @@
         <v>6863</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3457</v>
+        <v>3551</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11522</v>
+        <v>11661</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0114634711248196</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005775076546016097</v>
+        <v>0.005932087153189694</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01924519543942131</v>
+        <v>0.0194771699750502</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>23</v>
@@ -2771,19 +2771,19 @@
         <v>17062</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>10844</v>
+        <v>10709</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>24644</v>
+        <v>25513</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0143271651127205</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.009106004128368619</v>
+        <v>0.008992307745759964</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02069410623833162</v>
+        <v>0.02142361654605026</v>
       </c>
     </row>
     <row r="33">
@@ -2875,19 +2875,19 @@
         <v>6648</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3024</v>
+        <v>3264</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>13043</v>
+        <v>13372</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01686302190511643</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.007671362637040194</v>
+        <v>0.008280133457293058</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03308612328486766</v>
+        <v>0.03392174816943705</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>8</v>
@@ -2896,19 +2896,19 @@
         <v>4615</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2258</v>
+        <v>2216</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8506</v>
+        <v>8984</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01083452455123365</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.005301290803535326</v>
+        <v>0.005201734145286195</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01996952215488597</v>
+        <v>0.0210911122113431</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>16</v>
@@ -2917,19 +2917,19 @@
         <v>11263</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6314</v>
+        <v>6629</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>17613</v>
+        <v>17475</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01373208380269327</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.007698191072044734</v>
+        <v>0.008082294930745311</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0214745316755872</v>
+        <v>0.02130622398203273</v>
       </c>
     </row>
     <row r="35">
@@ -2946,19 +2946,19 @@
         <v>2998</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7178</v>
+        <v>7990</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.007604130967449448</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.00233961326262078</v>
+        <v>0.002348428085996151</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01820933332461587</v>
+        <v>0.02026834609970853</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>11</v>
@@ -2967,19 +2967,19 @@
         <v>6095</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3507</v>
+        <v>3132</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>10571</v>
+        <v>10252</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01430931200193786</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.008233739647836713</v>
+        <v>0.007352183985150413</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02481802454181218</v>
+        <v>0.02406815116961089</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>15</v>
@@ -2988,19 +2988,19 @@
         <v>9093</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5342</v>
+        <v>5161</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>15518</v>
+        <v>15124</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.01108650900498871</v>
+        <v>0.0110865090049887</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.006513145748744597</v>
+        <v>0.006292057958347696</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01892104063425371</v>
+        <v>0.01844056791222265</v>
       </c>
     </row>
     <row r="36">
@@ -3017,19 +3017,19 @@
         <v>363678</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>353011</v>
+        <v>353623</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>371075</v>
+        <v>371424</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.922553656311382</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8954931468781497</v>
+        <v>0.8970476760742117</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.941318727482271</v>
+        <v>0.9422029211088017</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>756</v>
@@ -3038,19 +3038,19 @@
         <v>401832</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>394037</v>
+        <v>394408</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>407694</v>
+        <v>407888</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.943358646215059</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.9250583570637316</v>
+        <v>0.9259288412580013</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.9571201050076285</v>
+        <v>0.9575751987071236</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1265</v>
@@ -3059,19 +3059,19 @@
         <v>765510</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>753810</v>
+        <v>752543</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>776070</v>
+        <v>774867</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.9333588589657379</v>
+        <v>0.9333588589657378</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.9190931012378747</v>
+        <v>0.9175488267388514</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.9462335357064856</v>
+        <v>0.9447675042311019</v>
       </c>
     </row>
     <row r="37">
@@ -3088,19 +3088,19 @@
         <v>12784</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>8146</v>
+        <v>7932</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>20233</v>
+        <v>19303</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.03242925837087648</v>
+        <v>0.03242925837087647</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02066458491498516</v>
+        <v>0.02012056147223428</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05132561226636195</v>
+        <v>0.04896779667250471</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>20</v>
@@ -3109,19 +3109,19 @@
         <v>9759</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6154</v>
+        <v>5994</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>15099</v>
+        <v>15058</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02291014224253357</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0144478857595667</v>
+        <v>0.01407265278122758</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0354467653298188</v>
+        <v>0.03535034408864134</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>39</v>
@@ -3130,19 +3130,19 @@
         <v>22543</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>16824</v>
+        <v>16300</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>31110</v>
+        <v>30434</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.02748544540421342</v>
+        <v>0.02748544540421341</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02051312062469183</v>
+        <v>0.01987415569594523</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03793171737389427</v>
+        <v>0.03710721124527373</v>
       </c>
     </row>
     <row r="38">
@@ -3159,19 +3159,19 @@
         <v>8101</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>4091</v>
+        <v>4425</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>13258</v>
+        <v>13193</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.0205499324451756</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.0103785039729428</v>
+        <v>0.01122540117313322</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.033631050491288</v>
+        <v>0.03346586908834544</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>7</v>
@@ -3180,19 +3180,19 @@
         <v>3658</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1516</v>
+        <v>1575</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>7440</v>
+        <v>7865</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.008587374989235947</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.003558229572401032</v>
+        <v>0.00369838644233177</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01746632976993487</v>
+        <v>0.0184636769483885</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>20</v>
@@ -3201,19 +3201,19 @@
         <v>11759</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>7390</v>
+        <v>7584</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>17910</v>
+        <v>18821</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01433710282236675</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.009010797299639559</v>
+        <v>0.009247344853128125</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02183750191119357</v>
+        <v>0.02294721896353422</v>
       </c>
     </row>
     <row r="39">
@@ -3305,19 +3305,19 @@
         <v>5557</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2541</v>
+        <v>2475</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>11285</v>
+        <v>10790</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0190058398582273</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.008690195912997415</v>
+        <v>0.008463959620960783</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03859355107723492</v>
+        <v>0.03690051146452471</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>12</v>
@@ -3326,19 +3326,19 @@
         <v>6539</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3496</v>
+        <v>3515</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>11278</v>
+        <v>11128</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01555784213054214</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.008319125789413588</v>
+        <v>0.008364477446329366</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02683373072864454</v>
+        <v>0.02647733693289309</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>19</v>
@@ -3347,19 +3347,19 @@
         <v>12096</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6997</v>
+        <v>7520</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>18503</v>
+        <v>18642</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01697251898093908</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.009817269701849193</v>
+        <v>0.01055183524959863</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02596229254472938</v>
+        <v>0.02615746776545013</v>
       </c>
     </row>
     <row r="41">
@@ -3376,19 +3376,19 @@
         <v>6605</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2974</v>
+        <v>3189</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>11979</v>
+        <v>12190</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.02258715065565456</v>
+        <v>0.02258715065565457</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01017202431186525</v>
+        <v>0.01090699189777979</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04096752346226538</v>
+        <v>0.04168633716421761</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>19</v>
@@ -3397,19 +3397,19 @@
         <v>10181</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>6281</v>
+        <v>6241</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>15374</v>
+        <v>15343</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02422352406334549</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01494478813991586</v>
+        <v>0.01485038893622523</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03658116507978229</v>
+        <v>0.03650576046763037</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>28</v>
@@ -3418,19 +3418,19 @@
         <v>16785</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>11216</v>
+        <v>11196</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>24545</v>
+        <v>24173</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02355213743223548</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01573774219990814</v>
+        <v>0.01570992246215594</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03443918925175481</v>
+        <v>0.03391822371051734</v>
       </c>
     </row>
     <row r="42">
@@ -3447,19 +3447,19 @@
         <v>253758</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>243507</v>
+        <v>243874</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>262756</v>
+        <v>263091</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.867816214985729</v>
+        <v>0.8678162149857291</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.8327593462067816</v>
+        <v>0.8340134845983592</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.8985884167206289</v>
+        <v>0.8997342343790156</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>672</v>
@@ -3468,19 +3468,19 @@
         <v>363733</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>353076</v>
+        <v>353132</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>373814</v>
+        <v>373403</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.8654519657840546</v>
+        <v>0.8654519657840545</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.8400941211922726</v>
+        <v>0.840227481401537</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.889439049723651</v>
+        <v>0.8884606066892177</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1034</v>
@@ -3489,19 +3489,19 @@
         <v>617491</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>603662</v>
+        <v>602567</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>631240</v>
+        <v>629772</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.866421992123493</v>
+        <v>0.8664219921234929</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.8470171577928669</v>
+        <v>0.8454818504523803</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.8857133944992105</v>
+        <v>0.8836541205712632</v>
       </c>
     </row>
     <row r="43">
@@ -3518,19 +3518,19 @@
         <v>22069</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>16175</v>
+        <v>15127</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>30578</v>
+        <v>28964</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.07547177543915509</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.05531648212937969</v>
+        <v>0.05173266107419484</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1045735220105368</v>
+        <v>0.09905314759113548</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>69</v>
@@ -3539,19 +3539,19 @@
         <v>30698</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>23741</v>
+        <v>23889</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>38338</v>
+        <v>38824</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.07304118119206097</v>
+        <v>0.07304118119206096</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.05648907885263642</v>
+        <v>0.05683998721401155</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.09121972915659018</v>
+        <v>0.09237726258004827</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>110</v>
@@ -3560,19 +3560,19 @@
         <v>52767</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>43437</v>
+        <v>43977</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>63273</v>
+        <v>63430</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.07403842819905958</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.06094778460940286</v>
+        <v>0.06170518756619913</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.08878052917798428</v>
+        <v>0.08900071433822553</v>
       </c>
     </row>
     <row r="44">
@@ -3589,19 +3589,19 @@
         <v>4421</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1881</v>
+        <v>2084</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>8244</v>
+        <v>8827</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01511901906123389</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.006432709327104521</v>
+        <v>0.00712628620555261</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02819174496238554</v>
+        <v>0.03018854339042936</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>14</v>
@@ -3610,19 +3610,19 @@
         <v>9131</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>5032</v>
+        <v>4587</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>17187</v>
+        <v>15259</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.02172548682999685</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.011971869795451</v>
+        <v>0.01091381068915674</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.0408931916252632</v>
+        <v>0.03630558681420843</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>22</v>
@@ -3631,19 +3631,19 @@
         <v>13552</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>8265</v>
+        <v>8441</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>21421</v>
+        <v>22175</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.01901492326427288</v>
+        <v>0.01901492326427287</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01159652640631032</v>
+        <v>0.01184407457764971</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03005641067981707</v>
+        <v>0.03111440774111391</v>
       </c>
     </row>
     <row r="45">
@@ -3735,19 +3735,19 @@
         <v>29493</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>20232</v>
+        <v>19879</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>41527</v>
+        <v>42008</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.008548850469094899</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.005864587865973327</v>
+        <v>0.005762229693048118</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01203718375399192</v>
+        <v>0.01217668747856731</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>54</v>
@@ -3756,19 +3756,19 @@
         <v>37105</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>28579</v>
+        <v>28860</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>49822</v>
+        <v>48092</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.0102188758268902</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.007870954282801438</v>
+        <v>0.007948161633660973</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01372141274761639</v>
+        <v>0.01324497883315342</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>85</v>
@@ -3777,19 +3777,19 @@
         <v>66597</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>54225</v>
+        <v>52972</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>82795</v>
+        <v>82543</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.009405216846837532</v>
+        <v>0.009405216846837533</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.007657927472425706</v>
+        <v>0.007480971482906766</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01169274798398034</v>
+        <v>0.01165709145598747</v>
       </c>
     </row>
     <row r="47">
@@ -3806,19 +3806,19 @@
         <v>34016</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>22752</v>
+        <v>22446</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>50623</v>
+        <v>48317</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.009860051295184621</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.006595002363573363</v>
+        <v>0.006506146685158999</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01467366057650719</v>
+        <v>0.01400526283840601</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>61</v>
@@ -3827,19 +3827,19 @@
         <v>41482</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>30607</v>
+        <v>31666</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>56320</v>
+        <v>55263</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.01142441446885513</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.008429454842344202</v>
+        <v>0.008721022957337203</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01551106624401688</v>
+        <v>0.01521976677638625</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>92</v>
@@ -3848,19 +3848,19 @@
         <v>75498</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>60023</v>
+        <v>59141</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>98094</v>
+        <v>94285</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01066223553643396</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.008476739493397946</v>
+        <v>0.008352167879494341</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01385338581546664</v>
+        <v>0.01331548555303418</v>
       </c>
     </row>
     <row r="48">
@@ -3877,19 +3877,19 @@
         <v>3207747</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3172336</v>
+        <v>3172328</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3237941</v>
+        <v>3237415</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.9298072676607525</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.9195430164058613</v>
+        <v>0.9195405734189852</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.9385595057488703</v>
+        <v>0.9384069748551785</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>4855</v>
@@ -3898,19 +3898,19 @@
         <v>3412483</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>3384998</v>
+        <v>3385242</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>3435942</v>
+        <v>3435896</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.9398231577877979</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.9322536400520396</v>
+        <v>0.9323207156484494</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.9462840865286251</v>
+        <v>0.9462714068569125</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>7886</v>
@@ -3919,19 +3919,19 @@
         <v>6620229</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>6579742</v>
+        <v>6579193</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>6659764</v>
+        <v>6659592</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.9349432804212349</v>
+        <v>0.934943280421235</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.9292254784024195</v>
+        <v>0.9291479929563473</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.9405266160086229</v>
+        <v>0.9405023978779476</v>
       </c>
     </row>
     <row r="49">
@@ -3948,19 +3948,19 @@
         <v>121619</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>101344</v>
+        <v>101609</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>143597</v>
+        <v>146344</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.03525294627823381</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02937589202152387</v>
+        <v>0.02945283378091291</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.04162355230379204</v>
+        <v>0.04241983300580258</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>170</v>
@@ -3969,19 +3969,19 @@
         <v>103357</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>88168</v>
+        <v>87988</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>123514</v>
+        <v>122812</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.0284652292469071</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.02428207072512324</v>
+        <v>0.0242325650294366</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.0340166519410132</v>
+        <v>0.03382322870484069</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>304</v>
@@ -3990,19 +3990,19 @@
         <v>224976</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>197877</v>
+        <v>198665</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>254474</v>
+        <v>257555</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.03177229694549972</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.02794529301414667</v>
+        <v>0.02805650904818903</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.03593821137012567</v>
+        <v>0.03637322959244856</v>
       </c>
     </row>
     <row r="50">
@@ -4019,19 +4019,19 @@
         <v>57030</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>42638</v>
+        <v>42628</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>75328</v>
+        <v>74773</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.01653088429673427</v>
+        <v>0.01653088429673428</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.0123592310246084</v>
+        <v>0.01235636434697254</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02183488930739424</v>
+        <v>0.02167402858626056</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>50</v>
@@ -4040,19 +4040,19 @@
         <v>36558</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>26404</v>
+        <v>26262</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>49030</v>
+        <v>49224</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01006832266954966</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.00727178188733311</v>
+        <v>0.007232653501740871</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.01350318425085897</v>
+        <v>0.01355651847527184</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>110</v>
@@ -4061,19 +4061,19 @@
         <v>93588</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>75349</v>
+        <v>75914</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>115510</v>
+        <v>114597</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.0132169702499938</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.0106412196816778</v>
+        <v>0.01072092749641024</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.01631293456738404</v>
+        <v>0.01618392636918101</v>
       </c>
     </row>
     <row r="51">
